--- a/capiq_data/in_process_data/IQ24893.xlsx
+++ b/capiq_data/in_process_data/IQ24893.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC561C1F-0925-406F-BC5B-447BD631E2FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865266A5-2765-4EAF-A9DB-3F9152A519EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"a29a220d-57b1-45c1-918b-db10da11e29e"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"2f9e54c4-3f82-45ae-9466-436973593a97"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>49.14</v>
+        <v>4.4589999999999996</v>
       </c>
       <c r="D2">
-        <v>166.57300000000001</v>
+        <v>24.152000000000001</v>
       </c>
       <c r="E2">
-        <v>76.603999999999999</v>
+        <v>14.403</v>
       </c>
       <c r="F2">
-        <v>148.351</v>
+        <v>21.344999999999999</v>
       </c>
       <c r="G2">
-        <v>714.63300000000004</v>
+        <v>71.802000000000007</v>
       </c>
       <c r="H2">
-        <v>2126.8760000000002</v>
+        <v>101.12</v>
       </c>
       <c r="I2">
-        <v>2.2410000000000001</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="J2">
-        <v>127.563</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>311.36900000000003</v>
+        <v>31.756</v>
       </c>
       <c r="O2">
-        <v>596.947</v>
+        <v>31.756</v>
       </c>
       <c r="P2">
-        <v>159.52500000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-22.236999999999998</v>
+        <v>-5.1239999999999997</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>1660</v>
+        <v>368</v>
       </c>
       <c r="T2">
-        <v>1529.9290000000001</v>
+        <v>69.364000000000004</v>
       </c>
       <c r="U2">
-        <v>472.47899999999998</v>
+        <v>6.3129999999999997</v>
       </c>
       <c r="V2">
-        <v>-25.265000000000001</v>
+        <v>4.9260000000000002</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>8.452</v>
+        <v>-7.18</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.66600000000000004</v>
+        <v>-2.1850000000000001</v>
       </c>
       <c r="AA2">
-        <v>49.14</v>
+        <v>4.4589999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>42.241</v>
+        <v>2.371</v>
       </c>
       <c r="D3">
-        <v>158.047</v>
+        <v>18.222000000000001</v>
       </c>
       <c r="E3">
-        <v>71.049000000000007</v>
+        <v>10.896000000000001</v>
       </c>
       <c r="F3">
-        <v>138.96299999999999</v>
+        <v>15.558999999999999</v>
       </c>
       <c r="G3">
-        <v>784.745</v>
+        <v>55.545000000000002</v>
       </c>
       <c r="H3">
-        <v>2178.36</v>
+        <v>84.001000000000005</v>
       </c>
       <c r="I3">
-        <v>4.3209999999999997</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="J3">
-        <v>116.93</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-5.3470000000000004</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>330.52600000000001</v>
+        <v>22.933</v>
       </c>
       <c r="O3">
-        <v>601.72699999999998</v>
+        <v>22.933</v>
       </c>
       <c r="P3">
-        <v>154.17699999999999</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>77.454999999999998</v>
+        <v>10.981</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>1720</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1576.633</v>
+        <v>61.067999999999998</v>
       </c>
       <c r="U3">
-        <v>549.93399999999997</v>
+        <v>17.294</v>
       </c>
       <c r="V3">
-        <v>84.858999999999995</v>
+        <v>6.3460000000000001</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-9.2289999999999992</v>
+        <v>-10.662000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-7.6999999999999999E-2</v>
+        <v>16.547000000000001</v>
       </c>
       <c r="AA3">
-        <v>42.241</v>
+        <v>2.371</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>45.430999999999997</v>
+        <v>3.569</v>
       </c>
       <c r="D4">
-        <v>162.25800000000001</v>
+        <v>20.931000000000001</v>
       </c>
       <c r="E4">
-        <v>68.807000000000002</v>
+        <v>11.701000000000001</v>
       </c>
       <c r="F4">
-        <v>141.697</v>
+        <v>17.984999999999999</v>
       </c>
       <c r="G4">
-        <v>854.25099999999998</v>
+        <v>64.031000000000006</v>
       </c>
       <c r="H4">
-        <v>2237.9749999999999</v>
+        <v>91.376999999999995</v>
       </c>
       <c r="I4">
-        <v>4.5369999999999999</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="J4">
-        <v>106.298</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>347.45699999999999</v>
+        <v>24.443999999999999</v>
       </c>
       <c r="O4">
-        <v>597.68100000000004</v>
+        <v>24.443999999999999</v>
       </c>
       <c r="P4">
-        <v>148.84</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>79.778000000000006</v>
+        <v>2.492</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1640.2940000000001</v>
+        <v>66.933000000000007</v>
       </c>
       <c r="U4">
-        <v>629.71199999999999</v>
+        <v>19.786000000000001</v>
       </c>
       <c r="V4">
-        <v>78.91</v>
+        <v>6.7939999999999996</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>4.2380000000000004</v>
+        <v>1.865</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-1.6E-2</v>
+        <v>-5.1980000000000004</v>
       </c>
       <c r="AA4">
-        <v>45.430999999999997</v>
+        <v>3.569</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>45.545999999999999</v>
+        <v>2.6539999999999999</v>
       </c>
       <c r="D5">
-        <v>172.935</v>
+        <v>20.61</v>
       </c>
       <c r="E5">
-        <v>65.084000000000003</v>
+        <v>12.948</v>
       </c>
       <c r="F5">
-        <v>150.90100000000001</v>
+        <v>17.899000000000001</v>
       </c>
       <c r="G5">
-        <v>626.42700000000002</v>
+        <v>65.897999999999996</v>
       </c>
       <c r="H5">
-        <v>2347.9050000000002</v>
+        <v>92.117000000000004</v>
       </c>
       <c r="I5">
-        <v>4.423</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="J5">
-        <v>79.722999999999999</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>371.47899999999998</v>
+        <v>25.344000000000001</v>
       </c>
       <c r="O5">
-        <v>654.88800000000003</v>
+        <v>25.344000000000001</v>
       </c>
       <c r="P5">
-        <v>138.21700000000001</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-223.41399999999999</v>
+        <v>-1.7909999999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1693.0170000000001</v>
+        <v>66.772999999999996</v>
       </c>
       <c r="U5">
-        <v>406.298</v>
+        <v>17.995000000000001</v>
       </c>
       <c r="V5">
-        <v>66.278000000000006</v>
+        <v>1.71</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-5.0170000000000003</v>
+        <v>-2.8849999999999998</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>3.7999999999999999E-2</v>
+        <v>-0.39700000000000002</v>
       </c>
       <c r="AA5">
-        <v>45.545999999999999</v>
+        <v>2.6539999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>47.457000000000001</v>
+        <v>5.0979999999999999</v>
       </c>
       <c r="D6">
-        <v>198.209</v>
+        <v>25.073</v>
       </c>
       <c r="E6">
-        <v>84.602000000000004</v>
+        <v>15.352</v>
       </c>
       <c r="F6">
-        <v>174.602</v>
+        <v>22.04</v>
       </c>
       <c r="G6">
-        <v>740.03300000000002</v>
+        <v>83.402000000000001</v>
       </c>
       <c r="H6">
-        <v>2448.4699999999998</v>
+        <v>117.762</v>
       </c>
       <c r="I6">
-        <v>6.9870000000000001</v>
+        <v>0.624</v>
       </c>
       <c r="J6">
-        <v>53.149000000000001</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>438.75099999999998</v>
+        <v>43.369</v>
       </c>
       <c r="O6">
-        <v>693.99699999999996</v>
+        <v>43.369</v>
       </c>
       <c r="P6">
-        <v>127.572</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>65.53</v>
+        <v>10.55</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>2100</v>
+        <v>450</v>
       </c>
       <c r="T6">
-        <v>1754.473</v>
+        <v>74.393000000000001</v>
       </c>
       <c r="U6">
-        <v>471.82799999999997</v>
+        <v>28.545000000000002</v>
       </c>
       <c r="V6">
-        <v>77.614000000000004</v>
+        <v>8.7880000000000003</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.33200000000000002</v>
+        <v>1.262</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-3.9E-2</v>
+        <v>4.8719999999999999</v>
       </c>
       <c r="AA6">
-        <v>47.457000000000001</v>
+        <v>5.0979999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>45.539000000000001</v>
+        <v>3.8879999999999999</v>
       </c>
       <c r="D7">
-        <v>185.345</v>
+        <v>21.265000000000001</v>
       </c>
       <c r="E7">
-        <v>79.506</v>
+        <v>13.057</v>
       </c>
       <c r="F7">
-        <v>161.21700000000001</v>
+        <v>18.414000000000001</v>
       </c>
       <c r="G7">
-        <v>830.80200000000002</v>
+        <v>77.936999999999998</v>
       </c>
       <c r="H7">
-        <v>2517.058</v>
+        <v>113.748</v>
       </c>
       <c r="I7">
-        <v>5.5720000000000001</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="J7">
-        <v>26.574000000000002</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-10.638999999999999</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>457.01600000000002</v>
+        <v>34.552999999999997</v>
       </c>
       <c r="O7">
-        <v>696.16499999999996</v>
+        <v>34.552999999999997</v>
       </c>
       <c r="P7">
-        <v>116.929</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>86.018000000000001</v>
+        <v>-10.087999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1820.893</v>
+        <v>79.194999999999993</v>
       </c>
       <c r="U7">
-        <v>557.846</v>
+        <v>18.457000000000001</v>
       </c>
       <c r="V7">
-        <v>83.596999999999994</v>
+        <v>2.8889999999999998</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>2.4020000000000001</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-1E-3</v>
+        <v>-7.5410000000000004</v>
       </c>
       <c r="AA7">
-        <v>45.539000000000001</v>
+        <v>3.8879999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>50.262</v>
+        <v>4.72</v>
       </c>
       <c r="D8">
-        <v>195.01599999999999</v>
+        <v>22.734000000000002</v>
       </c>
       <c r="E8">
-        <v>83.935000000000002</v>
+        <v>13.523</v>
       </c>
       <c r="F8">
-        <v>170.404</v>
+        <v>19.925000000000001</v>
       </c>
       <c r="G8">
-        <v>841.15300000000002</v>
+        <v>78.260000000000005</v>
       </c>
       <c r="H8">
-        <v>2513.2220000000002</v>
+        <v>113.238</v>
       </c>
       <c r="I8">
-        <v>3.8919999999999999</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="J8">
-        <v>26.574000000000002</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,75 +1390,75 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>463.91699999999997</v>
+        <v>34.085999999999999</v>
       </c>
       <c r="O8">
-        <v>692.37300000000005</v>
+        <v>34.085999999999999</v>
       </c>
       <c r="P8">
-        <v>106.298</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>-6.3620000000000001</v>
+        <v>4.3460000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>1820.8489999999999</v>
+        <v>79.152000000000001</v>
       </c>
       <c r="U8">
-        <v>551.48400000000004</v>
+        <v>22.803000000000001</v>
       </c>
       <c r="V8">
-        <v>74.869</v>
+        <v>6.7839999999999998</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-64.513999999999996</v>
+        <v>-5.1310000000000002</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>7.6999999999999999E-2</v>
+        <v>4.01</v>
       </c>
       <c r="AA8">
-        <v>50.262</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>51.619</v>
+        <v>4.0819999999999999</v>
       </c>
       <c r="D9">
-        <v>196.90899999999999</v>
+        <v>21.745000000000001</v>
       </c>
       <c r="E9">
-        <v>77.861000000000004</v>
+        <v>12.785</v>
       </c>
       <c r="F9">
-        <v>173.39699999999999</v>
+        <v>18.724</v>
       </c>
       <c r="G9">
-        <v>825.83100000000002</v>
+        <v>81.858999999999995</v>
       </c>
       <c r="H9">
-        <v>2558.3040000000001</v>
+        <v>116.274</v>
       </c>
       <c r="I9">
-        <v>4.0540000000000003</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1353,75 +1473,75 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>453.10700000000003</v>
+        <v>32.363</v>
       </c>
       <c r="O9">
-        <v>661.81399999999996</v>
+        <v>32.363</v>
       </c>
       <c r="P9">
-        <v>79.722999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>3.403</v>
+        <v>2.6259999999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1896.49</v>
+        <v>83.911000000000001</v>
       </c>
       <c r="U9">
-        <v>554.88699999999994</v>
+        <v>25.428999999999998</v>
       </c>
       <c r="V9">
-        <v>70.361000000000004</v>
+        <v>6.3170000000000002</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-20.972000000000001</v>
+        <v>-1.403</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>3.5999999999999997E-2</v>
+        <v>-2.0059999999999998</v>
       </c>
       <c r="AA9">
-        <v>51.619</v>
+        <v>4.0819999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>56.063000000000002</v>
+        <v>6.2690000000000001</v>
       </c>
       <c r="D10">
-        <v>220.74799999999999</v>
+        <v>25.266999999999999</v>
       </c>
       <c r="E10">
-        <v>96.597999999999999</v>
+        <v>15.875</v>
       </c>
       <c r="F10">
-        <v>194.37299999999999</v>
+        <v>22.187999999999999</v>
       </c>
       <c r="G10">
-        <v>913.35900000000004</v>
+        <v>92.491</v>
       </c>
       <c r="H10">
-        <v>2607.4169999999999</v>
+        <v>127.001</v>
       </c>
       <c r="I10">
-        <v>4.9240000000000004</v>
+        <v>0.627</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1436,75 +1556,75 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>477.387</v>
+        <v>35.607999999999997</v>
       </c>
       <c r="O10">
-        <v>667.12599999999998</v>
+        <v>35.607999999999997</v>
       </c>
       <c r="P10">
-        <v>53.149000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>21.815999999999999</v>
+        <v>20.768999999999998</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>2400</v>
+        <v>450</v>
       </c>
       <c r="T10">
-        <v>1940.2909999999999</v>
+        <v>91.393000000000001</v>
       </c>
       <c r="U10">
-        <v>576.70299999999997</v>
+        <v>46.198</v>
       </c>
       <c r="V10">
-        <v>69.587999999999994</v>
+        <v>6.1260000000000003</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-41.762</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-1.6E-2</v>
+        <v>14.906000000000001</v>
       </c>
       <c r="AA10">
-        <v>56.063000000000002</v>
+        <v>6.2690000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>51.023000000000003</v>
+        <v>4.2789999999999999</v>
       </c>
       <c r="D11">
-        <v>197.732</v>
+        <v>24.6</v>
       </c>
       <c r="E11">
-        <v>80.290999999999997</v>
+        <v>18.878</v>
       </c>
       <c r="F11">
-        <v>171.37200000000001</v>
+        <v>20.527000000000001</v>
       </c>
       <c r="G11">
-        <v>931.60799999999995</v>
+        <v>88.992000000000004</v>
       </c>
       <c r="H11">
-        <v>2599.6999999999998</v>
+        <v>147.333</v>
       </c>
       <c r="I11">
-        <v>3.387</v>
+        <v>1.133</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1516,78 +1636,78 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-26.574999999999999</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>419.30599999999998</v>
+        <v>49.893000000000001</v>
       </c>
       <c r="O11">
-        <v>593.81200000000001</v>
+        <v>49.893000000000001</v>
       </c>
       <c r="P11">
-        <v>26.574000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>74.290000000000006</v>
+        <v>-9.3490000000000002</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="T11">
-        <v>2005.8879999999999</v>
+        <v>97.44</v>
       </c>
       <c r="U11">
-        <v>650.99300000000005</v>
+        <v>36.848999999999997</v>
       </c>
       <c r="V11">
-        <v>95.433999999999997</v>
+        <v>11.468</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-11.882999999999999</v>
+        <v>1.3759999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="AA11">
-        <v>51.023000000000003</v>
+        <v>4.2789999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>55.945</v>
+        <v>4.4720000000000004</v>
       </c>
       <c r="D12">
-        <v>214.85</v>
+        <v>27.643000000000001</v>
       </c>
       <c r="E12">
-        <v>84.100999999999999</v>
+        <v>16.035</v>
       </c>
       <c r="F12">
-        <v>188.154</v>
+        <v>22.486000000000001</v>
       </c>
       <c r="G12">
-        <v>915.48400000000004</v>
+        <v>97.411000000000001</v>
       </c>
       <c r="H12">
-        <v>2576.0360000000001</v>
+        <v>155.68199999999999</v>
       </c>
       <c r="I12">
-        <v>3.3839999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1602,75 +1722,75 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>425.666</v>
+        <v>47.177</v>
       </c>
       <c r="O12">
-        <v>578.20100000000002</v>
+        <v>47.177</v>
       </c>
       <c r="P12">
-        <v>26.574000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>8.41</v>
+        <v>11.003</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="T12">
-        <v>1997.835</v>
+        <v>108.505</v>
       </c>
       <c r="U12">
-        <v>659.40300000000002</v>
+        <v>47.851999999999997</v>
       </c>
       <c r="V12">
-        <v>87.147999999999996</v>
+        <v>10.161</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-67.513000000000005</v>
+        <v>2.97</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-1.7999999999999999E-2</v>
+        <v>-0.23499999999999999</v>
       </c>
       <c r="AA12">
-        <v>55.945</v>
+        <v>4.4720000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>62.43</v>
+        <v>5.3609999999999998</v>
       </c>
       <c r="D13">
-        <v>212.65799999999999</v>
+        <v>28.038</v>
       </c>
       <c r="E13">
-        <v>79.912000000000006</v>
+        <v>16.033999999999999</v>
       </c>
       <c r="F13">
-        <v>186.70400000000001</v>
+        <v>23.613</v>
       </c>
       <c r="G13">
-        <v>959.95600000000002</v>
+        <v>106.658</v>
       </c>
       <c r="H13">
-        <v>2618.279</v>
+        <v>162.44499999999999</v>
       </c>
       <c r="I13">
-        <v>3.3490000000000002</v>
+        <v>1.2789999999999999</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1685,75 +1805,75 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>386.95600000000002</v>
+        <v>45.244</v>
       </c>
       <c r="O13">
-        <v>529.98099999999999</v>
+        <v>45.244</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>47.930999999999997</v>
+        <v>19.428999999999998</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="T13">
-        <v>2088.2979999999998</v>
+        <v>117.20099999999999</v>
       </c>
       <c r="U13">
-        <v>707.33399999999995</v>
+        <v>67.281000000000006</v>
       </c>
       <c r="V13">
-        <v>65.44</v>
+        <v>7.101</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-16.294</v>
+        <v>2.3679999999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-2E-3</v>
+        <v>10.010999999999999</v>
       </c>
       <c r="AA13">
-        <v>62.43</v>
+        <v>5.3609999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>75.929000000000002</v>
+        <v>7.2009999999999996</v>
       </c>
       <c r="D14">
-        <v>236.02</v>
+        <v>33.253999999999998</v>
       </c>
       <c r="E14">
-        <v>97.844999999999999</v>
+        <v>20.027999999999999</v>
       </c>
       <c r="F14">
-        <v>206.636</v>
+        <v>28.431999999999999</v>
       </c>
       <c r="G14">
-        <v>1067.596</v>
+        <v>122.559</v>
       </c>
       <c r="H14">
-        <v>2722.3820000000001</v>
+        <v>180.559</v>
       </c>
       <c r="I14">
-        <v>7.9390000000000001</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1768,75 +1888,75 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>440.43099999999998</v>
+        <v>53.484999999999999</v>
       </c>
       <c r="O14">
-        <v>586.13599999999997</v>
+        <v>53.484999999999999</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>35.152000000000001</v>
+        <v>10.757</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="T14">
-        <v>2136.2460000000001</v>
+        <v>127.074</v>
       </c>
       <c r="U14">
-        <v>742.48599999999999</v>
+        <v>78.037999999999997</v>
       </c>
       <c r="V14">
-        <v>84.960999999999999</v>
+        <v>10.076000000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-34.069000000000003</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-5.5E-2</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="AA14">
-        <v>75.929000000000002</v>
+        <v>7.2009999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>56.542000000000002</v>
+        <v>7.14</v>
       </c>
       <c r="D15">
-        <v>215.27099999999999</v>
+        <v>31.332000000000001</v>
       </c>
       <c r="E15">
-        <v>83.418000000000006</v>
+        <v>18.652999999999999</v>
       </c>
       <c r="F15">
-        <v>186.84100000000001</v>
+        <v>26.911999999999999</v>
       </c>
       <c r="G15">
-        <v>1132.2619999999999</v>
+        <v>137.261</v>
       </c>
       <c r="H15">
-        <v>2793.2289999999998</v>
+        <v>193.45599999999999</v>
       </c>
       <c r="I15">
-        <v>5.2720000000000002</v>
+        <v>1.5549999999999999</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1848,78 +1968,78 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>441.74700000000001</v>
+        <v>55.767000000000003</v>
       </c>
       <c r="O15">
-        <v>584.51599999999996</v>
+        <v>56.375999999999998</v>
       </c>
       <c r="P15">
-        <v>0.10199999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>115.19799999999999</v>
+        <v>13.257</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>2640</v>
+        <v>550</v>
       </c>
       <c r="T15">
-        <v>2208.7130000000002</v>
+        <v>137.08000000000001</v>
       </c>
       <c r="U15">
-        <v>857.68399999999997</v>
+        <v>91.295000000000002</v>
       </c>
       <c r="V15">
-        <v>131.63900000000001</v>
+        <v>13.212</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>5.5010000000000003</v>
+        <v>0.995</v>
       </c>
       <c r="Y15">
-        <v>6.9000000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>56.542000000000002</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>63.036000000000001</v>
+        <v>7.577</v>
       </c>
       <c r="D16">
-        <v>232.375</v>
+        <v>32.002000000000002</v>
       </c>
       <c r="E16">
-        <v>88.543999999999997</v>
+        <v>16.652000000000001</v>
       </c>
       <c r="F16">
-        <v>203.10300000000001</v>
+        <v>27.777999999999999</v>
       </c>
       <c r="G16">
-        <v>1064.6569999999999</v>
+        <v>146.76300000000001</v>
       </c>
       <c r="H16">
-        <v>2799.1959999999999</v>
+        <v>202.67599999999999</v>
       </c>
       <c r="I16">
-        <v>4.5510000000000002</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1934,75 +2054,75 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>447.03699999999998</v>
+        <v>55.838999999999999</v>
       </c>
       <c r="O16">
-        <v>579.42399999999998</v>
+        <v>55.838999999999999</v>
       </c>
       <c r="P16">
-        <v>3.2000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>-74.769000000000005</v>
+        <v>-2.028</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>2690</v>
+        <v>550</v>
       </c>
       <c r="T16">
-        <v>2219.7719999999999</v>
+        <v>146.83699999999999</v>
       </c>
       <c r="U16">
-        <v>782.91499999999996</v>
+        <v>89.266999999999996</v>
       </c>
       <c r="V16">
-        <v>79.832999999999998</v>
+        <v>13.09</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-64.198999999999998</v>
+        <v>1.49</v>
       </c>
       <c r="Y16">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-15.103</v>
       </c>
       <c r="AA16">
-        <v>63.036000000000001</v>
+        <v>7.577</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>65.478999999999999</v>
+        <v>7.5990000000000002</v>
       </c>
       <c r="D17">
-        <v>234</v>
+        <v>32.317999999999998</v>
       </c>
       <c r="E17">
-        <v>83.253</v>
+        <v>14.715999999999999</v>
       </c>
       <c r="F17">
-        <v>206.28299999999999</v>
+        <v>27.635000000000002</v>
       </c>
       <c r="G17">
-        <v>1075.02</v>
+        <v>157.84200000000001</v>
       </c>
       <c r="H17">
-        <v>2789.038</v>
+        <v>212.87899999999999</v>
       </c>
       <c r="I17">
-        <v>3.2250000000000001</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2017,75 +2137,75 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>407.28</v>
+        <v>54.231000000000002</v>
       </c>
       <c r="O17">
-        <v>533.32100000000003</v>
+        <v>54.231000000000002</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>33.89</v>
+        <v>25.013000000000002</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>2690</v>
+        <v>550</v>
       </c>
       <c r="T17">
-        <v>2255.7170000000001</v>
+        <v>158.648</v>
       </c>
       <c r="U17">
-        <v>816.80499999999995</v>
+        <v>114.28</v>
       </c>
       <c r="V17">
-        <v>81.561999999999998</v>
+        <v>13.413</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-23.271000000000001</v>
+        <v>2.121</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA17">
-        <v>65.478999999999999</v>
+        <v>7.5990000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>69.632999999999996</v>
+        <v>12.250999999999999</v>
       </c>
       <c r="D18">
-        <v>254.375</v>
+        <v>38.887</v>
       </c>
       <c r="E18">
-        <v>101.229</v>
+        <v>18.792000000000002</v>
       </c>
       <c r="F18">
-        <v>224.06100000000001</v>
+        <v>33.936999999999998</v>
       </c>
       <c r="G18">
-        <v>1082.3150000000001</v>
+        <v>184.25399999999999</v>
       </c>
       <c r="H18">
-        <v>2752.8789999999999</v>
+        <v>239.64599999999999</v>
       </c>
       <c r="I18">
-        <v>3.4209999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2100,75 +2220,75 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>465.07499999999999</v>
+        <v>64.177000000000007</v>
       </c>
       <c r="O18">
-        <v>535.37800000000004</v>
+        <v>64.177000000000007</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>-28.741</v>
+        <v>-30.733000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>2700</v>
+        <v>550</v>
       </c>
       <c r="T18">
-        <v>2217.5010000000002</v>
+        <v>175.46899999999999</v>
       </c>
       <c r="U18">
-        <v>788.06399999999996</v>
+        <v>83.546999999999997</v>
       </c>
       <c r="V18">
-        <v>92.272999999999996</v>
+        <v>11.651</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-103.673</v>
+        <v>1.286</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-44.351999999999997</v>
       </c>
       <c r="AA18">
-        <v>69.632999999999996</v>
+        <v>12.250999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>56.131999999999998</v>
+        <v>9.6829999999999998</v>
       </c>
       <c r="D19">
-        <v>217.78100000000001</v>
+        <v>37.624000000000002</v>
       </c>
       <c r="E19">
-        <v>80.948999999999998</v>
+        <v>17.591999999999999</v>
       </c>
       <c r="F19">
-        <v>191.25</v>
+        <v>32.512999999999998</v>
       </c>
       <c r="G19">
-        <v>1029.288</v>
+        <v>195.358</v>
       </c>
       <c r="H19">
-        <v>2681.0940000000001</v>
+        <v>254.97900000000001</v>
       </c>
       <c r="I19">
-        <v>3.6890000000000001</v>
+        <v>1.214</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2180,78 +2300,78 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>444.11099999999999</v>
+        <v>67.004000000000005</v>
       </c>
       <c r="O19">
-        <v>529.82899999999995</v>
+        <v>67.004000000000005</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>-27.67</v>
+        <v>-13.641</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="T19">
-        <v>2151.2649999999999</v>
+        <v>187.97499999999999</v>
       </c>
       <c r="U19">
-        <v>760.39400000000001</v>
+        <v>69.906000000000006</v>
       </c>
       <c r="V19">
-        <v>114.12</v>
+        <v>15.32</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-111.523</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-24.666</v>
       </c>
       <c r="AA19">
-        <v>56.131999999999998</v>
+        <v>9.6829999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>62.335000000000001</v>
+        <v>9.7750000000000004</v>
       </c>
       <c r="D20">
-        <v>235.48500000000001</v>
+        <v>37.655999999999999</v>
       </c>
       <c r="E20">
-        <v>87.96</v>
+        <v>15.359</v>
       </c>
       <c r="F20">
-        <v>207.44300000000001</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="G20">
-        <v>1110.355</v>
+        <v>203.65100000000001</v>
       </c>
       <c r="H20">
-        <v>2746.03</v>
+        <v>262.01100000000002</v>
       </c>
       <c r="I20">
-        <v>4.7859999999999996</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2266,75 +2386,75 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>430.31</v>
+        <v>65.441999999999993</v>
       </c>
       <c r="O20">
-        <v>504.72500000000002</v>
+        <v>65.441999999999993</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>79.959999999999994</v>
+        <v>83.418000000000006</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="T20">
-        <v>2241.3049999999998</v>
+        <v>196.56899999999999</v>
       </c>
       <c r="U20">
-        <v>840.35400000000004</v>
+        <v>153.32400000000001</v>
       </c>
       <c r="V20">
-        <v>66.412000000000006</v>
+        <v>17.597999999999999</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>12.62</v>
+        <v>-1.8280000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>69.989000000000004</v>
       </c>
       <c r="AA20">
-        <v>62.335000000000001</v>
+        <v>9.7750000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>66.033000000000001</v>
+        <v>11.173999999999999</v>
       </c>
       <c r="D21">
-        <v>237.84</v>
+        <v>39.034999999999997</v>
       </c>
       <c r="E21">
-        <v>91.47</v>
+        <v>16.448</v>
       </c>
       <c r="F21">
-        <v>211.077</v>
+        <v>33.878999999999998</v>
       </c>
       <c r="G21">
-        <v>1045.2639999999999</v>
+        <v>215.32</v>
       </c>
       <c r="H21">
-        <v>2701.5659999999998</v>
+        <v>273.01799999999997</v>
       </c>
       <c r="I21">
-        <v>3.22</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>411.95699999999999</v>
+        <v>63.981999999999999</v>
       </c>
       <c r="O21">
-        <v>489.97</v>
+        <v>63.981999999999999</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>-64.114999999999995</v>
+        <v>11.106</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="T21">
-        <v>2211.596</v>
+        <v>209.036</v>
       </c>
       <c r="U21">
-        <v>776.23900000000003</v>
+        <v>164.43</v>
       </c>
       <c r="V21">
-        <v>77.795000000000002</v>
+        <v>14.159000000000001</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-106.535</v>
+        <v>-2.1459999999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,36 +2508,36 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>66.033000000000001</v>
+        <v>11.173999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>68.021000000000001</v>
+        <v>13.271000000000001</v>
       </c>
       <c r="D22">
-        <v>251.64699999999999</v>
+        <v>43.720999999999997</v>
       </c>
       <c r="E22">
-        <v>91.578999999999994</v>
+        <v>19.134</v>
       </c>
       <c r="F22">
-        <v>224.49199999999999</v>
+        <v>38.481000000000002</v>
       </c>
       <c r="G22">
-        <v>1076.4259999999999</v>
+        <v>244.36199999999999</v>
       </c>
       <c r="H22">
-        <v>2729.904</v>
+        <v>305.50900000000001</v>
       </c>
       <c r="I22">
-        <v>4.8650000000000002</v>
+        <v>1.33</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2432,75 +2552,75 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>484.14600000000002</v>
+        <v>76.47</v>
       </c>
       <c r="O22">
-        <v>535.47699999999998</v>
+        <v>80.531999999999996</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7.9290000000000003</v>
+        <v>11.736000000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="T22">
-        <v>2194.4270000000001</v>
+        <v>224.977</v>
       </c>
       <c r="U22">
-        <v>784.16800000000001</v>
+        <v>176.166</v>
       </c>
       <c r="V22">
-        <v>109.196</v>
+        <v>20.748000000000001</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-86.313000000000002</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-8.0239999999999991</v>
       </c>
       <c r="AA22">
-        <v>68.021000000000001</v>
+        <v>13.271000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>56.468000000000004</v>
+        <v>12.913</v>
       </c>
       <c r="D23">
-        <v>225.90600000000001</v>
+        <v>46.011000000000003</v>
       </c>
       <c r="E23">
-        <v>82.498000000000005</v>
+        <v>22.491</v>
       </c>
       <c r="F23">
-        <v>200.13200000000001</v>
+        <v>40.051000000000002</v>
       </c>
       <c r="G23">
-        <v>1118.6790000000001</v>
+        <v>257.91399999999999</v>
       </c>
       <c r="H23">
-        <v>2758.828</v>
+        <v>325.54300000000001</v>
       </c>
       <c r="I23">
-        <v>4.3019999999999996</v>
+        <v>1.385</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>474.82400000000001</v>
+        <v>80.322000000000003</v>
       </c>
       <c r="O23">
-        <v>524.92499999999995</v>
+        <v>81.697000000000003</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>79.266999999999996</v>
+        <v>20.992999999999999</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="T23">
-        <v>2233.9029999999998</v>
+        <v>243.846</v>
       </c>
       <c r="U23">
-        <v>863.43499999999995</v>
+        <v>197.15899999999999</v>
       </c>
       <c r="V23">
-        <v>110.723</v>
+        <v>12.628</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-38.348999999999997</v>
+        <v>3.9020000000000001</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA23">
-        <v>56.468000000000004</v>
+        <v>12.913</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>69.628</v>
+        <v>-19.393000000000001</v>
       </c>
       <c r="D24">
-        <v>246.06899999999999</v>
+        <v>62.264000000000003</v>
       </c>
       <c r="E24">
-        <v>85.506</v>
+        <v>29.937000000000001</v>
       </c>
       <c r="F24">
-        <v>218.578</v>
+        <v>52.55</v>
       </c>
       <c r="G24">
-        <v>1109.742</v>
+        <v>191.44800000000001</v>
       </c>
       <c r="H24">
-        <v>2747.6610000000001</v>
+        <v>868.89400000000001</v>
       </c>
       <c r="I24">
-        <v>4.218</v>
+        <v>2.5139999999999998</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>146.191</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>467.71</v>
+        <v>166.62</v>
       </c>
       <c r="O24">
-        <v>511.80099999999999</v>
+        <v>365.59199999999998</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>170.55199999999999</v>
       </c>
       <c r="Q24">
-        <v>-20.079999999999998</v>
+        <v>-94.510999999999996</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="T24">
-        <v>2235.86</v>
+        <v>503.30200000000002</v>
       </c>
       <c r="U24">
-        <v>843.35500000000002</v>
+        <v>102.648</v>
       </c>
       <c r="V24">
-        <v>71.649000000000001</v>
+        <v>25.405000000000001</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-79.045000000000002</v>
+        <v>168.221</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>6.0430000000000001</v>
       </c>
       <c r="AA24">
-        <v>69.628</v>
+        <v>-19.393000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>69.557000000000002</v>
+        <v>8.3719999999999999</v>
       </c>
       <c r="D25">
-        <v>245.86199999999999</v>
+        <v>70.117000000000004</v>
       </c>
       <c r="E25">
-        <v>85.272999999999996</v>
+        <v>27.815999999999999</v>
       </c>
       <c r="F25">
-        <v>219.78899999999999</v>
+        <v>57.935000000000002</v>
       </c>
       <c r="G25">
-        <v>1100.1510000000001</v>
+        <v>184.179</v>
       </c>
       <c r="H25">
-        <v>2730.357</v>
+        <v>854.55399999999997</v>
       </c>
       <c r="I25">
-        <v>3.996</v>
+        <v>3.0259999999999998</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>128.715</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>454.43700000000001</v>
+        <v>157.803</v>
       </c>
       <c r="O25">
-        <v>500.59199999999998</v>
+        <v>336.947</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>148.52099999999999</v>
       </c>
       <c r="Q25">
-        <v>-5.4390000000000001</v>
+        <v>-1.03</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>2800</v>
+        <v>1430</v>
       </c>
       <c r="T25">
-        <v>2229.7649999999999</v>
+        <v>517.60699999999997</v>
       </c>
       <c r="U25">
-        <v>837.91600000000005</v>
+        <v>101.61799999999999</v>
       </c>
       <c r="V25">
-        <v>84.399000000000001</v>
+        <v>22.355</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-88.64</v>
+        <v>-17.753</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="AA25">
-        <v>69.557000000000002</v>
+        <v>8.3719999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>69.983000000000004</v>
+        <v>12.263999999999999</v>
       </c>
       <c r="D26">
-        <v>270.62799999999999</v>
+        <v>85.248000000000005</v>
       </c>
       <c r="E26">
-        <v>107.19199999999999</v>
+        <v>37.341000000000001</v>
       </c>
       <c r="F26">
-        <v>241.19800000000001</v>
+        <v>71.286000000000001</v>
       </c>
       <c r="G26">
-        <v>1169.4010000000001</v>
+        <v>215.94399999999999</v>
       </c>
       <c r="H26">
-        <v>2800.5259999999998</v>
+        <v>902.69600000000003</v>
       </c>
       <c r="I26">
-        <v>7.3949999999999996</v>
+        <v>3.5990000000000002</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>109.393</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>539.1</v>
+        <v>179.53800000000001</v>
       </c>
       <c r="O26">
-        <v>592.12099999999998</v>
+        <v>367.90300000000002</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>123.32</v>
       </c>
       <c r="Q26">
-        <v>-15.436999999999999</v>
+        <v>2.6970000000000001</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="T26">
-        <v>2208.4050000000002</v>
+        <v>534.79300000000001</v>
       </c>
       <c r="U26">
-        <v>822.47900000000004</v>
+        <v>104.315</v>
       </c>
       <c r="V26">
-        <v>99.209000000000003</v>
+        <v>29.309000000000001</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-82.596000000000004</v>
+        <v>-23.596</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="AA26">
-        <v>69.983000000000004</v>
+        <v>12.263999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>63.305999999999997</v>
+        <v>16.151</v>
       </c>
       <c r="D27">
-        <v>253.405</v>
+        <v>87.858999999999995</v>
       </c>
       <c r="E27">
-        <v>92.331999999999994</v>
+        <v>43.55</v>
       </c>
       <c r="F27">
-        <v>226.81</v>
+        <v>74.320999999999998</v>
       </c>
       <c r="G27">
-        <v>1182.069</v>
+        <v>245.5</v>
       </c>
       <c r="H27">
-        <v>2794.6930000000002</v>
+        <v>903.40200000000004</v>
       </c>
       <c r="I27">
-        <v>4.8390000000000004</v>
+        <v>3.9790000000000001</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>101.512</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-8.52</v>
       </c>
       <c r="N27">
-        <v>528.726</v>
+        <v>194.376</v>
       </c>
       <c r="O27">
-        <v>583.24800000000005</v>
+        <v>349.38600000000002</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>114.80200000000001</v>
       </c>
       <c r="Q27">
-        <v>43.709000000000003</v>
+        <v>13.058999999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="T27">
-        <v>2211.4450000000002</v>
+        <v>554.01599999999996</v>
       </c>
       <c r="U27">
-        <v>866.18799999999999</v>
+        <v>117.374</v>
       </c>
       <c r="V27">
-        <v>125.893</v>
+        <v>22.202000000000002</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-78.334000000000003</v>
+        <v>-7.4550000000000001</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AA27">
-        <v>63.305999999999997</v>
+        <v>16.151</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>69.73</v>
+        <v>18.256</v>
       </c>
       <c r="D28">
-        <v>263.92399999999998</v>
+        <v>92.210999999999999</v>
       </c>
       <c r="E28">
-        <v>83.222999999999999</v>
+        <v>41.079000000000001</v>
       </c>
       <c r="F28">
-        <v>236.53800000000001</v>
+        <v>78.662000000000006</v>
       </c>
       <c r="G28">
-        <v>1145.68</v>
+        <v>253.066</v>
       </c>
       <c r="H28">
-        <v>2760.9650000000001</v>
+        <v>906.79100000000005</v>
       </c>
       <c r="I28">
-        <v>5.2450000000000001</v>
+        <v>3.4910000000000001</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>86.706999999999994</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>514.78700000000003</v>
+        <v>189.673</v>
       </c>
       <c r="O28">
-        <v>571.54999999999995</v>
+        <v>327.39600000000002</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>98.459000000000003</v>
       </c>
       <c r="Q28">
-        <v>-8.1920000000000002</v>
+        <v>20.41</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="T28">
-        <v>2189.415</v>
+        <v>579.39499999999998</v>
       </c>
       <c r="U28">
-        <v>857.99599999999998</v>
+        <v>137.78399999999999</v>
       </c>
       <c r="V28">
-        <v>112.182</v>
+        <v>37.027000000000001</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-112.36799999999999</v>
+        <v>-13.833</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="AA28">
-        <v>69.73</v>
+        <v>18.256</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>73.63</v>
+        <v>18.696000000000002</v>
       </c>
       <c r="D29">
-        <v>275.58499999999998</v>
+        <v>94.034000000000006</v>
       </c>
       <c r="E29">
-        <v>91.355999999999995</v>
+        <v>39.49</v>
       </c>
       <c r="F29">
-        <v>248.60599999999999</v>
+        <v>80.037999999999997</v>
       </c>
       <c r="G29">
-        <v>1201.674</v>
+        <v>281.28199999999998</v>
       </c>
       <c r="H29">
-        <v>2846.0129999999999</v>
+        <v>928.76</v>
       </c>
       <c r="I29">
-        <v>4.2569999999999997</v>
+        <v>2.78</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>66.153000000000006</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>496.35199999999998</v>
+        <v>192.691</v>
       </c>
       <c r="O29">
-        <v>558.75900000000001</v>
+        <v>315.23700000000002</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>75.501000000000005</v>
       </c>
       <c r="Q29">
-        <v>61.575000000000003</v>
+        <v>12.867000000000001</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>2900</v>
+        <v>1400</v>
       </c>
       <c r="T29">
-        <v>2287.2539999999999</v>
+        <v>613.52300000000002</v>
       </c>
       <c r="U29">
-        <v>919.57100000000003</v>
+        <v>150.65100000000001</v>
       </c>
       <c r="V29">
-        <v>88.885000000000005</v>
+        <v>26.256</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>5.3280000000000003</v>
+        <v>-15.837999999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="AA29">
-        <v>73.63</v>
+        <v>18.696000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>52.585000000000001</v>
+        <v>29.289000000000001</v>
       </c>
       <c r="D30">
-        <v>302.33600000000001</v>
+        <v>111.236</v>
       </c>
       <c r="E30">
-        <v>124.65900000000001</v>
+        <v>48.280999999999999</v>
       </c>
       <c r="F30">
-        <v>271.42599999999999</v>
+        <v>95.804000000000002</v>
       </c>
       <c r="G30">
-        <v>1270.2660000000001</v>
+        <v>305.16899999999998</v>
       </c>
       <c r="H30">
-        <v>2941.623</v>
+        <v>969.29200000000003</v>
       </c>
       <c r="I30">
-        <v>6.0419999999999998</v>
+        <v>3.6030000000000002</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>52.43</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>608.553</v>
+        <v>195.86699999999999</v>
       </c>
       <c r="O30">
-        <v>695.79200000000003</v>
+        <v>328.08199999999999</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>60.146000000000001</v>
       </c>
       <c r="Q30">
-        <v>-38.07</v>
+        <v>16.573</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>2900</v>
+        <v>1400</v>
       </c>
       <c r="T30">
-        <v>2245.8310000000001</v>
+        <v>641.21</v>
       </c>
       <c r="U30">
-        <v>881.50099999999998</v>
+        <v>167.22399999999999</v>
       </c>
       <c r="V30">
-        <v>103.47799999999999</v>
+        <v>41.643000000000001</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-109.277</v>
+        <v>-18.702999999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-4.4139999999999997</v>
       </c>
       <c r="AA30">
-        <v>52.585000000000001</v>
+        <v>29.289000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>84.28</v>
+        <v>25.853999999999999</v>
       </c>
       <c r="D31">
-        <v>282.87299999999999</v>
+        <v>109.545</v>
       </c>
       <c r="E31">
-        <v>256.56</v>
+        <v>54.978000000000002</v>
       </c>
       <c r="F31">
-        <v>252.62100000000001</v>
+        <v>93.822000000000003</v>
       </c>
       <c r="G31">
-        <v>1327.329</v>
+        <v>355.93599999999998</v>
       </c>
       <c r="H31">
-        <v>2959.1660000000002</v>
+        <v>1018.9880000000001</v>
       </c>
       <c r="I31">
-        <v>7.2590000000000003</v>
+        <v>4.0780000000000003</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>41.664999999999999</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,78 +3296,78 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-11.944000000000001</v>
       </c>
       <c r="N31">
-        <v>442.09199999999998</v>
+        <v>217.2</v>
       </c>
       <c r="O31">
-        <v>551.80600000000004</v>
+        <v>341.70699999999999</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>48.204000000000001</v>
       </c>
       <c r="Q31">
-        <v>3.992</v>
+        <v>33.679000000000002</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="T31">
-        <v>2407.36</v>
+        <v>677.28099999999995</v>
       </c>
       <c r="U31">
-        <v>885.49300000000005</v>
+        <v>200.90299999999999</v>
       </c>
       <c r="V31">
-        <v>132.42099999999999</v>
+        <v>37.146000000000001</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-129.405</v>
+        <v>-9.7590000000000003</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>4.4710000000000001</v>
       </c>
       <c r="AA31">
-        <v>84.28</v>
+        <v>25.853999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>92.596000000000004</v>
+        <v>28.129000000000001</v>
       </c>
       <c r="D32">
-        <v>305.91300000000001</v>
+        <v>111.246</v>
       </c>
       <c r="E32">
-        <v>258.27999999999997</v>
+        <v>51.718000000000004</v>
       </c>
       <c r="F32">
-        <v>274.55</v>
+        <v>95.483999999999995</v>
       </c>
       <c r="G32">
-        <v>1142.9849999999999</v>
+        <v>337.88200000000001</v>
       </c>
       <c r="H32">
-        <v>3058.25</v>
+        <v>996.11199999999997</v>
       </c>
       <c r="I32">
-        <v>7.5979999999999999</v>
+        <v>2.6789999999999998</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>435.00099999999998</v>
+        <v>209.364</v>
       </c>
       <c r="O32">
-        <v>550.77099999999996</v>
+        <v>287.142</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>0.374</v>
       </c>
       <c r="Q32">
-        <v>-189.59899999999999</v>
+        <v>-5.4980000000000002</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>3200</v>
+        <v>1400</v>
       </c>
       <c r="T32">
-        <v>2507.4789999999998</v>
+        <v>708.97</v>
       </c>
       <c r="U32">
-        <v>695.89400000000001</v>
+        <v>195.405</v>
       </c>
       <c r="V32">
-        <v>111.121</v>
+        <v>55.146999999999998</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>8.1959999999999997</v>
+        <v>-45.35</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>-6.26</v>
       </c>
       <c r="AA32">
-        <v>92.596000000000004</v>
+        <v>28.129000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>89.335999999999999</v>
+        <v>25.774999999999999</v>
       </c>
       <c r="D33">
-        <v>289.41800000000001</v>
+        <v>122.247</v>
       </c>
       <c r="E33">
-        <v>235.547</v>
+        <v>57.844000000000001</v>
       </c>
       <c r="F33">
-        <v>258.64</v>
+        <v>105.78</v>
       </c>
       <c r="G33">
-        <v>1127.567</v>
+        <v>358.33800000000002</v>
       </c>
       <c r="H33">
-        <v>3056.1109999999999</v>
+        <v>1841.0909999999999</v>
       </c>
       <c r="I33">
-        <v>6.7670000000000003</v>
+        <v>2.8519999999999999</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>269.26600000000002</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>415.43900000000002</v>
+        <v>246.542</v>
       </c>
       <c r="O33">
-        <v>507.565</v>
+        <v>678.65200000000004</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>300.24400000000003</v>
       </c>
       <c r="Q33">
-        <v>33.286000000000001</v>
+        <v>14.127000000000001</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>3300</v>
+        <v>1700</v>
       </c>
       <c r="T33">
-        <v>2548.5459999999998</v>
+        <v>1162.4390000000001</v>
       </c>
       <c r="U33">
-        <v>729.18</v>
+        <v>209.53200000000001</v>
       </c>
       <c r="V33">
-        <v>109.961</v>
+        <v>42.746000000000002</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-66.073999999999998</v>
+        <v>300.62099999999998</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>3.1019999999999999</v>
       </c>
       <c r="AA33">
-        <v>89.335999999999999</v>
+        <v>25.774999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>153.16300000000001</v>
+        <v>31.913</v>
       </c>
       <c r="D34">
-        <v>415.43200000000002</v>
+        <v>135.30099999999999</v>
       </c>
       <c r="E34">
-        <v>317.7</v>
+        <v>61.823</v>
       </c>
       <c r="F34">
-        <v>378.97399999999999</v>
+        <v>119.642</v>
       </c>
       <c r="G34">
-        <v>1311.1769999999999</v>
+        <v>397.15300000000002</v>
       </c>
       <c r="H34">
-        <v>3265.9639999999999</v>
+        <v>1864.5139999999999</v>
       </c>
       <c r="I34">
-        <v>7.9530000000000003</v>
+        <v>3.069</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>249.79499999999999</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>524.76700000000005</v>
+        <v>267.66399999999999</v>
       </c>
       <c r="O34">
-        <v>616.41700000000003</v>
+        <v>681.61500000000001</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>283.45400000000001</v>
       </c>
       <c r="Q34">
-        <v>47.959000000000003</v>
+        <v>18.643999999999998</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>3400</v>
+        <v>1750</v>
       </c>
       <c r="T34">
-        <v>2649.547</v>
+        <v>1182.8989999999999</v>
       </c>
       <c r="U34">
-        <v>777.13900000000001</v>
+        <v>228.17599999999999</v>
       </c>
       <c r="V34">
-        <v>131.48500000000001</v>
+        <v>61.668999999999997</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-75.391999999999996</v>
+        <v>-27.762</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-2.5430000000000001</v>
       </c>
       <c r="AA34">
-        <v>153.16300000000001</v>
+        <v>31.913</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>86.23</v>
+        <v>21.094999999999999</v>
       </c>
       <c r="D35">
-        <v>317.13</v>
+        <v>116.31</v>
       </c>
       <c r="E35">
-        <v>268.52600000000001</v>
+        <v>53.445</v>
       </c>
       <c r="F35">
-        <v>286.86200000000002</v>
+        <v>101.678</v>
       </c>
       <c r="G35">
-        <v>1062.8109999999999</v>
+        <v>378.20800000000003</v>
       </c>
       <c r="H35">
-        <v>3372.2629999999999</v>
+        <v>1824.568</v>
       </c>
       <c r="I35">
-        <v>11.502000000000001</v>
+        <v>2.4929999999999999</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>242.40299999999999</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-7.4580000000000002</v>
       </c>
       <c r="N35">
-        <v>503.41</v>
+        <v>264.75099999999998</v>
       </c>
       <c r="O35">
-        <v>687.88199999999995</v>
+        <v>663.64400000000001</v>
       </c>
       <c r="P35">
-        <v>102.52500000000001</v>
+        <v>271.96199999999999</v>
       </c>
       <c r="Q35">
-        <v>-169.74799999999999</v>
+        <v>1.093</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>3700</v>
+        <v>1700</v>
       </c>
       <c r="T35">
-        <v>2684.3809999999999</v>
+        <v>1160.924</v>
       </c>
       <c r="U35">
-        <v>607.39099999999996</v>
+        <v>229.26900000000001</v>
       </c>
       <c r="V35">
-        <v>151.578</v>
+        <v>51.25</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-69.090999999999994</v>
+        <v>-45.55</v>
       </c>
       <c r="Y35">
-        <v>87.259</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>4.9980000000000002</v>
       </c>
       <c r="AA35">
-        <v>86.23</v>
+        <v>21.094999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>109.75</v>
+        <v>27.137</v>
       </c>
       <c r="D36">
-        <v>368.63499999999999</v>
+        <v>122.026</v>
       </c>
       <c r="E36">
-        <v>297.798</v>
+        <v>50.886000000000003</v>
       </c>
       <c r="F36">
-        <v>332.89299999999997</v>
+        <v>107.467</v>
       </c>
       <c r="G36">
-        <v>1133.345</v>
+        <v>399.30700000000002</v>
       </c>
       <c r="H36">
-        <v>3512.8420000000001</v>
+        <v>1835.124</v>
       </c>
       <c r="I36">
-        <v>9.8650000000000002</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>211.911</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>505.666</v>
+        <v>264.952</v>
       </c>
       <c r="O36">
-        <v>695.55600000000004</v>
+        <v>626.38300000000004</v>
       </c>
       <c r="P36">
-        <v>107.52</v>
+        <v>238.55600000000001</v>
       </c>
       <c r="Q36">
-        <v>24.064</v>
+        <v>22.434000000000001</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>3800</v>
+        <v>1600</v>
       </c>
       <c r="T36">
-        <v>2817.2860000000001</v>
+        <v>1208.741</v>
       </c>
       <c r="U36">
-        <v>631.45500000000004</v>
+        <v>251.703</v>
       </c>
       <c r="V36">
-        <v>88.539000000000001</v>
+        <v>43.44</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-6.4669999999999996</v>
+        <v>-29.373000000000001</v>
       </c>
       <c r="Y36">
-        <v>90.42</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-1.9950000000000001</v>
       </c>
       <c r="AA36">
-        <v>109.75</v>
+        <v>27.137</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>89.462999999999994</v>
+        <v>30.529</v>
       </c>
       <c r="D37">
-        <v>343.899</v>
+        <v>128.18700000000001</v>
       </c>
       <c r="E37">
-        <v>295.58999999999997</v>
+        <v>51.055999999999997</v>
       </c>
       <c r="F37">
-        <v>307.29599999999999</v>
+        <v>113.47499999999999</v>
       </c>
       <c r="G37">
-        <v>1206.2260000000001</v>
+        <v>430.48099999999999</v>
       </c>
       <c r="H37">
-        <v>3582.0120000000002</v>
+        <v>1852.729</v>
       </c>
       <c r="I37">
-        <v>8.1720000000000006</v>
+        <v>1.885</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>205.34399999999999</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>473.83</v>
+        <v>244.2</v>
       </c>
       <c r="O37">
-        <v>658.68799999999999</v>
+        <v>595.68799999999999</v>
       </c>
       <c r="P37">
-        <v>107.83199999999999</v>
+        <v>233.797</v>
       </c>
       <c r="Q37">
-        <v>101.229</v>
+        <v>41.634999999999998</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>3900</v>
+        <v>1600</v>
       </c>
       <c r="T37">
-        <v>2923.3240000000001</v>
+        <v>1257.0409999999999</v>
       </c>
       <c r="U37">
-        <v>732.68399999999997</v>
+        <v>293.33800000000002</v>
       </c>
       <c r="V37">
-        <v>120.36799999999999</v>
+        <v>34.079000000000001</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>5.5220000000000002</v>
+        <v>2.2480000000000002</v>
       </c>
       <c r="Y37">
-        <v>91.173000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>2.198</v>
       </c>
       <c r="AA37">
-        <v>89.462999999999994</v>
+        <v>30.529</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>165.852</v>
+        <v>37.630000000000003</v>
       </c>
       <c r="D38">
-        <v>486.22800000000001</v>
+        <v>150.36199999999999</v>
       </c>
       <c r="E38">
-        <v>433.47899999999998</v>
+        <v>67.084000000000003</v>
       </c>
       <c r="F38">
-        <v>444.27800000000002</v>
+        <v>134.03399999999999</v>
       </c>
       <c r="G38">
-        <v>1555.48</v>
+        <v>515.49</v>
       </c>
       <c r="H38">
-        <v>4838.8869999999997</v>
+        <v>1920.182</v>
       </c>
       <c r="I38">
-        <v>14.298</v>
+        <v>2.4260000000000002</v>
       </c>
       <c r="J38">
-        <v>423.53100000000001</v>
+        <v>198.66800000000001</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>695.14</v>
+        <v>266.76600000000002</v>
       </c>
       <c r="O38">
-        <v>1385.508</v>
+        <v>607.55100000000004</v>
       </c>
       <c r="P38">
-        <v>590.29899999999998</v>
+        <v>226.279</v>
       </c>
       <c r="Q38">
-        <v>139.41</v>
+        <v>42.54</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>4100</v>
+        <v>1600</v>
       </c>
       <c r="T38">
-        <v>3453.3789999999999</v>
+        <v>1312.6310000000001</v>
       </c>
       <c r="U38">
-        <v>872.09400000000005</v>
+        <v>335.87799999999999</v>
       </c>
       <c r="V38">
-        <v>139.45099999999999</v>
+        <v>44.92</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>499.44499999999999</v>
+        <v>8.5850000000000009</v>
       </c>
       <c r="Y38">
-        <v>91.768000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-7.609</v>
       </c>
       <c r="AA38">
-        <v>165.852</v>
+        <v>37.630000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>46.064</v>
+        <v>32.369</v>
       </c>
       <c r="D39">
-        <v>304.98500000000001</v>
+        <v>136.053</v>
       </c>
       <c r="E39">
-        <v>337.10500000000002</v>
+        <v>67.388999999999996</v>
       </c>
       <c r="F39">
-        <v>264.42099999999999</v>
+        <v>119.614</v>
       </c>
       <c r="G39">
-        <v>1290.7</v>
+        <v>566.08199999999999</v>
       </c>
       <c r="H39">
-        <v>4526.085</v>
+        <v>1954.5309999999999</v>
       </c>
       <c r="I39">
-        <v>12.571</v>
+        <v>3.8279999999999998</v>
       </c>
       <c r="J39">
-        <v>423.60700000000003</v>
+        <v>180.26</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-75</v>
+        <v>-20.077999999999999</v>
       </c>
       <c r="N39">
-        <v>537.14200000000005</v>
+        <v>278.35700000000003</v>
       </c>
       <c r="O39">
-        <v>1233.7349999999999</v>
+        <v>595.49300000000005</v>
       </c>
       <c r="P39">
-        <v>549.33600000000001</v>
+        <v>205.63300000000001</v>
       </c>
       <c r="Q39">
-        <v>-154.346</v>
+        <v>53.362000000000002</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>4200</v>
+        <v>1600</v>
       </c>
       <c r="T39">
-        <v>3292.35</v>
+        <v>1359.038</v>
       </c>
       <c r="U39">
-        <v>717.74800000000005</v>
+        <v>389.24</v>
       </c>
       <c r="V39">
-        <v>147.41200000000001</v>
+        <v>59.731000000000002</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-288.738</v>
+        <v>-8.3670000000000009</v>
       </c>
       <c r="Y39">
-        <v>107.035</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>6.8490000000000002</v>
       </c>
       <c r="AA39">
-        <v>46.064</v>
+        <v>32.369</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>96.563999999999993</v>
+        <v>35.493000000000002</v>
       </c>
       <c r="D40">
-        <v>385.661</v>
+        <v>137.767</v>
       </c>
       <c r="E40">
-        <v>343.24700000000001</v>
+        <v>63.521999999999998</v>
       </c>
       <c r="F40">
-        <v>341.565</v>
+        <v>121.80500000000001</v>
       </c>
       <c r="G40">
-        <v>1294.2639999999999</v>
+        <v>578.74199999999996</v>
       </c>
       <c r="H40">
-        <v>4671.866</v>
+        <v>1953.55</v>
       </c>
       <c r="I40">
-        <v>10.505000000000001</v>
+        <v>3.7669999999999999</v>
       </c>
       <c r="J40">
-        <v>423.68299999999999</v>
+        <v>148.839</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>543.80600000000004</v>
+        <v>273.267</v>
       </c>
       <c r="O40">
-        <v>1233.818</v>
+        <v>551</v>
       </c>
       <c r="P40">
-        <v>546.40200000000004</v>
+        <v>170.27500000000001</v>
       </c>
       <c r="Q40">
-        <v>26.797999999999998</v>
+        <v>26.248000000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>4400</v>
+        <v>1600</v>
       </c>
       <c r="T40">
-        <v>3438.0479999999998</v>
+        <v>1402.55</v>
       </c>
       <c r="U40">
-        <v>744.54600000000005</v>
+        <v>415.488</v>
       </c>
       <c r="V40">
-        <v>131.59200000000001</v>
+        <v>60.155000000000001</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>3.1869999999999998</v>
+        <v>-28.384</v>
       </c>
       <c r="Y40">
-        <v>103.58499999999999</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AA40">
-        <v>96.563999999999993</v>
+        <v>35.493000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>75.626999999999995</v>
+        <v>36.130000000000003</v>
       </c>
       <c r="D41">
-        <v>366.96499999999997</v>
+        <v>139.84299999999999</v>
       </c>
       <c r="E41">
-        <v>371.35199999999998</v>
+        <v>54.042000000000002</v>
       </c>
       <c r="F41">
-        <v>323.49099999999999</v>
+        <v>122.744</v>
       </c>
       <c r="G41">
-        <v>1458.721</v>
+        <v>686.39200000000005</v>
       </c>
       <c r="H41">
-        <v>4846.2950000000001</v>
+        <v>2118.482</v>
       </c>
       <c r="I41">
-        <v>10.577999999999999</v>
+        <v>3.5539999999999998</v>
       </c>
       <c r="J41">
-        <v>423.75900000000001</v>
+        <v>138.19999999999999</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>561.84699999999998</v>
+        <v>355.54300000000001</v>
       </c>
       <c r="O41">
-        <v>1256.682</v>
+        <v>658.34199999999998</v>
       </c>
       <c r="P41">
-        <v>545.87300000000005</v>
+        <v>164.89099999999999</v>
       </c>
       <c r="Q41">
-        <v>100.19499999999999</v>
+        <v>79.227999999999994</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="T41">
-        <v>3589.6129999999998</v>
+        <v>1460.14</v>
       </c>
       <c r="U41">
-        <v>844.74099999999999</v>
+        <v>494.71600000000001</v>
       </c>
       <c r="V41">
-        <v>94.539000000000001</v>
+        <v>72.263000000000005</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>9.7050000000000001</v>
+        <v>-1.34</v>
       </c>
       <c r="Y41">
-        <v>101.941</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AA41">
-        <v>75.626999999999995</v>
+        <v>36.130000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>49.14</v>
+      </c>
+      <c r="D42">
+        <v>166.57300000000001</v>
+      </c>
+      <c r="E42">
+        <v>76.603999999999999</v>
+      </c>
+      <c r="F42">
+        <v>148.351</v>
+      </c>
+      <c r="G42">
+        <v>714.63300000000004</v>
+      </c>
+      <c r="H42">
+        <v>2126.8760000000002</v>
+      </c>
+      <c r="I42">
+        <v>2.2410000000000001</v>
+      </c>
+      <c r="J42">
+        <v>127.563</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>311.36900000000003</v>
+      </c>
+      <c r="O42">
+        <v>596.947</v>
+      </c>
+      <c r="P42">
+        <v>159.52500000000001</v>
+      </c>
+      <c r="Q42">
+        <v>-22.236999999999998</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>1660</v>
+      </c>
+      <c r="T42">
+        <v>1529.9290000000001</v>
+      </c>
+      <c r="U42">
+        <v>472.47899999999998</v>
+      </c>
+      <c r="V42">
+        <v>-25.265000000000001</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>8.452</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="AA42">
+        <v>49.14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>42.241</v>
+      </c>
+      <c r="D43">
+        <v>158.047</v>
+      </c>
+      <c r="E43">
+        <v>71.049000000000007</v>
+      </c>
+      <c r="F43">
+        <v>138.96299999999999</v>
+      </c>
+      <c r="G43">
+        <v>784.745</v>
+      </c>
+      <c r="H43">
+        <v>2178.36</v>
+      </c>
+      <c r="I43">
+        <v>4.3209999999999997</v>
+      </c>
+      <c r="J43">
+        <v>116.93</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-5.3470000000000004</v>
+      </c>
+      <c r="N43">
+        <v>330.52600000000001</v>
+      </c>
+      <c r="O43">
+        <v>601.72699999999998</v>
+      </c>
+      <c r="P43">
+        <v>154.17699999999999</v>
+      </c>
+      <c r="Q43">
+        <v>77.454999999999998</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>1720</v>
+      </c>
+      <c r="T43">
+        <v>1576.633</v>
+      </c>
+      <c r="U43">
+        <v>549.93399999999997</v>
+      </c>
+      <c r="V43">
+        <v>84.858999999999995</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-9.2289999999999992</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="AA43">
+        <v>42.241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>45.430999999999997</v>
+      </c>
+      <c r="D44">
+        <v>162.25800000000001</v>
+      </c>
+      <c r="E44">
+        <v>68.807000000000002</v>
+      </c>
+      <c r="F44">
+        <v>141.697</v>
+      </c>
+      <c r="G44">
+        <v>854.25099999999998</v>
+      </c>
+      <c r="H44">
+        <v>2237.9749999999999</v>
+      </c>
+      <c r="I44">
+        <v>4.5369999999999999</v>
+      </c>
+      <c r="J44">
+        <v>106.298</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>347.45699999999999</v>
+      </c>
+      <c r="O44">
+        <v>597.68100000000004</v>
+      </c>
+      <c r="P44">
+        <v>148.84</v>
+      </c>
+      <c r="Q44">
+        <v>79.778000000000006</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>1750</v>
+      </c>
+      <c r="T44">
+        <v>1640.2940000000001</v>
+      </c>
+      <c r="U44">
+        <v>629.71199999999999</v>
+      </c>
+      <c r="V44">
+        <v>78.91</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>4.2380000000000004</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="AA44">
+        <v>45.430999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>45.545999999999999</v>
+      </c>
+      <c r="D45">
+        <v>172.935</v>
+      </c>
+      <c r="E45">
+        <v>65.084000000000003</v>
+      </c>
+      <c r="F45">
+        <v>150.90100000000001</v>
+      </c>
+      <c r="G45">
+        <v>626.42700000000002</v>
+      </c>
+      <c r="H45">
+        <v>2347.9050000000002</v>
+      </c>
+      <c r="I45">
+        <v>4.423</v>
+      </c>
+      <c r="J45">
+        <v>79.722999999999999</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>371.47899999999998</v>
+      </c>
+      <c r="O45">
+        <v>654.88800000000003</v>
+      </c>
+      <c r="P45">
+        <v>138.21700000000001</v>
+      </c>
+      <c r="Q45">
+        <v>-223.41399999999999</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>2100</v>
+      </c>
+      <c r="T45">
+        <v>1693.0170000000001</v>
+      </c>
+      <c r="U45">
+        <v>406.298</v>
+      </c>
+      <c r="V45">
+        <v>66.278000000000006</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-5.0170000000000003</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AA45">
+        <v>45.545999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>47.457000000000001</v>
+      </c>
+      <c r="D46">
+        <v>198.209</v>
+      </c>
+      <c r="E46">
+        <v>84.602000000000004</v>
+      </c>
+      <c r="F46">
+        <v>174.602</v>
+      </c>
+      <c r="G46">
+        <v>740.03300000000002</v>
+      </c>
+      <c r="H46">
+        <v>2448.4699999999998</v>
+      </c>
+      <c r="I46">
+        <v>6.9870000000000001</v>
+      </c>
+      <c r="J46">
+        <v>53.149000000000001</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>438.75099999999998</v>
+      </c>
+      <c r="O46">
+        <v>693.99699999999996</v>
+      </c>
+      <c r="P46">
+        <v>127.572</v>
+      </c>
+      <c r="Q46">
+        <v>65.53</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>2100</v>
+      </c>
+      <c r="T46">
+        <v>1754.473</v>
+      </c>
+      <c r="U46">
+        <v>471.82799999999997</v>
+      </c>
+      <c r="V46">
+        <v>77.614000000000004</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="AA46">
+        <v>47.457000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>45.539000000000001</v>
+      </c>
+      <c r="D47">
+        <v>185.345</v>
+      </c>
+      <c r="E47">
+        <v>79.506</v>
+      </c>
+      <c r="F47">
+        <v>161.21700000000001</v>
+      </c>
+      <c r="G47">
+        <v>830.80200000000002</v>
+      </c>
+      <c r="H47">
+        <v>2517.058</v>
+      </c>
+      <c r="I47">
+        <v>5.5720000000000001</v>
+      </c>
+      <c r="J47">
+        <v>26.574000000000002</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-10.638999999999999</v>
+      </c>
+      <c r="N47">
+        <v>457.01600000000002</v>
+      </c>
+      <c r="O47">
+        <v>696.16499999999996</v>
+      </c>
+      <c r="P47">
+        <v>116.929</v>
+      </c>
+      <c r="Q47">
+        <v>86.018000000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>2200</v>
+      </c>
+      <c r="T47">
+        <v>1820.893</v>
+      </c>
+      <c r="U47">
+        <v>557.846</v>
+      </c>
+      <c r="V47">
+        <v>83.596999999999994</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>2.4020000000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-1E-3</v>
+      </c>
+      <c r="AA47">
+        <v>45.539000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>50.262</v>
+      </c>
+      <c r="D48">
+        <v>195.01599999999999</v>
+      </c>
+      <c r="E48">
+        <v>83.935000000000002</v>
+      </c>
+      <c r="F48">
+        <v>170.404</v>
+      </c>
+      <c r="G48">
+        <v>841.15300000000002</v>
+      </c>
+      <c r="H48">
+        <v>2513.2220000000002</v>
+      </c>
+      <c r="I48">
+        <v>3.8919999999999999</v>
+      </c>
+      <c r="J48">
+        <v>26.574000000000002</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>463.91699999999997</v>
+      </c>
+      <c r="O48">
+        <v>692.37300000000005</v>
+      </c>
+      <c r="P48">
+        <v>106.298</v>
+      </c>
+      <c r="Q48">
+        <v>-6.3620000000000001</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>2200</v>
+      </c>
+      <c r="T48">
+        <v>1820.8489999999999</v>
+      </c>
+      <c r="U48">
+        <v>551.48400000000004</v>
+      </c>
+      <c r="V48">
+        <v>74.869</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-64.513999999999996</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="AA48">
+        <v>50.262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>51.619</v>
+      </c>
+      <c r="D49">
+        <v>196.90899999999999</v>
+      </c>
+      <c r="E49">
+        <v>77.861000000000004</v>
+      </c>
+      <c r="F49">
+        <v>173.39699999999999</v>
+      </c>
+      <c r="G49">
+        <v>825.83100000000002</v>
+      </c>
+      <c r="H49">
+        <v>2558.3040000000001</v>
+      </c>
+      <c r="I49">
+        <v>4.0540000000000003</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>453.10700000000003</v>
+      </c>
+      <c r="O49">
+        <v>661.81399999999996</v>
+      </c>
+      <c r="P49">
+        <v>79.722999999999999</v>
+      </c>
+      <c r="Q49">
+        <v>3.403</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>2400</v>
+      </c>
+      <c r="T49">
+        <v>1896.49</v>
+      </c>
+      <c r="U49">
+        <v>554.88699999999994</v>
+      </c>
+      <c r="V49">
+        <v>70.361000000000004</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-20.972000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AA49">
+        <v>51.619</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>56.063000000000002</v>
+      </c>
+      <c r="D50">
+        <v>220.74799999999999</v>
+      </c>
+      <c r="E50">
+        <v>96.597999999999999</v>
+      </c>
+      <c r="F50">
+        <v>194.37299999999999</v>
+      </c>
+      <c r="G50">
+        <v>913.35900000000004</v>
+      </c>
+      <c r="H50">
+        <v>2607.4169999999999</v>
+      </c>
+      <c r="I50">
+        <v>4.9240000000000004</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>477.387</v>
+      </c>
+      <c r="O50">
+        <v>667.12599999999998</v>
+      </c>
+      <c r="P50">
+        <v>53.149000000000001</v>
+      </c>
+      <c r="Q50">
+        <v>21.815999999999999</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>2400</v>
+      </c>
+      <c r="T50">
+        <v>1940.2909999999999</v>
+      </c>
+      <c r="U50">
+        <v>576.70299999999997</v>
+      </c>
+      <c r="V50">
+        <v>69.587999999999994</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-41.762</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="AA50">
+        <v>56.063000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>51.023000000000003</v>
+      </c>
+      <c r="D51">
+        <v>197.732</v>
+      </c>
+      <c r="E51">
+        <v>80.290999999999997</v>
+      </c>
+      <c r="F51">
+        <v>171.37200000000001</v>
+      </c>
+      <c r="G51">
+        <v>931.60799999999995</v>
+      </c>
+      <c r="H51">
+        <v>2599.6999999999998</v>
+      </c>
+      <c r="I51">
+        <v>3.387</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-26.574999999999999</v>
+      </c>
+      <c r="N51">
+        <v>419.30599999999998</v>
+      </c>
+      <c r="O51">
+        <v>593.81200000000001</v>
+      </c>
+      <c r="P51">
+        <v>26.574000000000002</v>
+      </c>
+      <c r="Q51">
+        <v>74.290000000000006</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>2500</v>
+      </c>
+      <c r="T51">
+        <v>2005.8879999999999</v>
+      </c>
+      <c r="U51">
+        <v>650.99300000000005</v>
+      </c>
+      <c r="V51">
+        <v>95.433999999999997</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-11.882999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-0.03</v>
+      </c>
+      <c r="AA51">
+        <v>51.023000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>55.945</v>
+      </c>
+      <c r="D52">
+        <v>214.85</v>
+      </c>
+      <c r="E52">
+        <v>84.100999999999999</v>
+      </c>
+      <c r="F52">
+        <v>188.154</v>
+      </c>
+      <c r="G52">
+        <v>915.48400000000004</v>
+      </c>
+      <c r="H52">
+        <v>2576.0360000000001</v>
+      </c>
+      <c r="I52">
+        <v>3.3839999999999999</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>425.666</v>
+      </c>
+      <c r="O52">
+        <v>578.20100000000002</v>
+      </c>
+      <c r="P52">
+        <v>26.574000000000002</v>
+      </c>
+      <c r="Q52">
+        <v>8.41</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>2500</v>
+      </c>
+      <c r="T52">
+        <v>1997.835</v>
+      </c>
+      <c r="U52">
+        <v>659.40300000000002</v>
+      </c>
+      <c r="V52">
+        <v>87.147999999999996</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-67.513000000000005</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="AA52">
+        <v>55.945</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>62.43</v>
+      </c>
+      <c r="D53">
+        <v>212.65799999999999</v>
+      </c>
+      <c r="E53">
+        <v>79.912000000000006</v>
+      </c>
+      <c r="F53">
+        <v>186.70400000000001</v>
+      </c>
+      <c r="G53">
+        <v>959.95600000000002</v>
+      </c>
+      <c r="H53">
+        <v>2618.279</v>
+      </c>
+      <c r="I53">
+        <v>3.3490000000000002</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>386.95600000000002</v>
+      </c>
+      <c r="O53">
+        <v>529.98099999999999</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>47.930999999999997</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>2500</v>
+      </c>
+      <c r="T53">
+        <v>2088.2979999999998</v>
+      </c>
+      <c r="U53">
+        <v>707.33399999999995</v>
+      </c>
+      <c r="V53">
+        <v>65.44</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-16.294</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-2E-3</v>
+      </c>
+      <c r="AA53">
+        <v>62.43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>75.929000000000002</v>
+      </c>
+      <c r="D54">
+        <v>236.02</v>
+      </c>
+      <c r="E54">
+        <v>97.844999999999999</v>
+      </c>
+      <c r="F54">
+        <v>206.636</v>
+      </c>
+      <c r="G54">
+        <v>1067.596</v>
+      </c>
+      <c r="H54">
+        <v>2722.3820000000001</v>
+      </c>
+      <c r="I54">
+        <v>7.9390000000000001</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>440.43099999999998</v>
+      </c>
+      <c r="O54">
+        <v>586.13599999999997</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>2600</v>
+      </c>
+      <c r="T54">
+        <v>2136.2460000000001</v>
+      </c>
+      <c r="U54">
+        <v>742.48599999999999</v>
+      </c>
+      <c r="V54">
+        <v>84.960999999999999</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-34.069000000000003</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="AA54">
+        <v>75.929000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>56.542000000000002</v>
+      </c>
+      <c r="D55">
+        <v>215.27099999999999</v>
+      </c>
+      <c r="E55">
+        <v>83.418000000000006</v>
+      </c>
+      <c r="F55">
+        <v>186.84100000000001</v>
+      </c>
+      <c r="G55">
+        <v>1132.2619999999999</v>
+      </c>
+      <c r="H55">
+        <v>2793.2289999999998</v>
+      </c>
+      <c r="I55">
+        <v>5.2720000000000002</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-0.01</v>
+      </c>
+      <c r="N55">
+        <v>441.74700000000001</v>
+      </c>
+      <c r="O55">
+        <v>584.51599999999996</v>
+      </c>
+      <c r="P55">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="Q55">
+        <v>115.19799999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>2640</v>
+      </c>
+      <c r="T55">
+        <v>2208.7130000000002</v>
+      </c>
+      <c r="U55">
+        <v>857.68399999999997</v>
+      </c>
+      <c r="V55">
+        <v>131.63900000000001</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>5.5010000000000003</v>
+      </c>
+      <c r="Y55">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>56.542000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>63.036000000000001</v>
+      </c>
+      <c r="D56">
+        <v>232.375</v>
+      </c>
+      <c r="E56">
+        <v>88.543999999999997</v>
+      </c>
+      <c r="F56">
+        <v>203.10300000000001</v>
+      </c>
+      <c r="G56">
+        <v>1064.6569999999999</v>
+      </c>
+      <c r="H56">
+        <v>2799.1959999999999</v>
+      </c>
+      <c r="I56">
+        <v>4.5510000000000002</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>447.03699999999998</v>
+      </c>
+      <c r="O56">
+        <v>579.42399999999998</v>
+      </c>
+      <c r="P56">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Q56">
+        <v>-74.769000000000005</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>2690</v>
+      </c>
+      <c r="T56">
+        <v>2219.7719999999999</v>
+      </c>
+      <c r="U56">
+        <v>782.91499999999996</v>
+      </c>
+      <c r="V56">
+        <v>79.832999999999998</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-64.198999999999998</v>
+      </c>
+      <c r="Y56">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>63.036000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>65.478999999999999</v>
+      </c>
+      <c r="D57">
+        <v>234</v>
+      </c>
+      <c r="E57">
+        <v>83.253</v>
+      </c>
+      <c r="F57">
+        <v>206.28299999999999</v>
+      </c>
+      <c r="G57">
+        <v>1075.02</v>
+      </c>
+      <c r="H57">
+        <v>2789.038</v>
+      </c>
+      <c r="I57">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>407.28</v>
+      </c>
+      <c r="O57">
+        <v>533.32100000000003</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>33.89</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>2690</v>
+      </c>
+      <c r="T57">
+        <v>2255.7170000000001</v>
+      </c>
+      <c r="U57">
+        <v>816.80499999999995</v>
+      </c>
+      <c r="V57">
+        <v>81.561999999999998</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-23.271000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>65.478999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>69.632999999999996</v>
+      </c>
+      <c r="D58">
+        <v>254.375</v>
+      </c>
+      <c r="E58">
+        <v>101.229</v>
+      </c>
+      <c r="F58">
+        <v>224.06100000000001</v>
+      </c>
+      <c r="G58">
+        <v>1082.3150000000001</v>
+      </c>
+      <c r="H58">
+        <v>2752.8789999999999</v>
+      </c>
+      <c r="I58">
+        <v>3.4209999999999998</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>465.07499999999999</v>
+      </c>
+      <c r="O58">
+        <v>535.37800000000004</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>-28.741</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>2700</v>
+      </c>
+      <c r="T58">
+        <v>2217.5010000000002</v>
+      </c>
+      <c r="U58">
+        <v>788.06399999999996</v>
+      </c>
+      <c r="V58">
+        <v>92.272999999999996</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-103.673</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>69.632999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>56.131999999999998</v>
+      </c>
+      <c r="D59">
+        <v>217.78100000000001</v>
+      </c>
+      <c r="E59">
+        <v>80.948999999999998</v>
+      </c>
+      <c r="F59">
+        <v>191.25</v>
+      </c>
+      <c r="G59">
+        <v>1029.288</v>
+      </c>
+      <c r="H59">
+        <v>2681.0940000000001</v>
+      </c>
+      <c r="I59">
+        <v>3.6890000000000001</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="N59">
+        <v>444.11099999999999</v>
+      </c>
+      <c r="O59">
+        <v>529.82899999999995</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>-27.67</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>2700</v>
+      </c>
+      <c r="T59">
+        <v>2151.2649999999999</v>
+      </c>
+      <c r="U59">
+        <v>760.39400000000001</v>
+      </c>
+      <c r="V59">
+        <v>114.12</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-111.523</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>56.131999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>62.335000000000001</v>
+      </c>
+      <c r="D60">
+        <v>235.48500000000001</v>
+      </c>
+      <c r="E60">
+        <v>87.96</v>
+      </c>
+      <c r="F60">
+        <v>207.44300000000001</v>
+      </c>
+      <c r="G60">
+        <v>1110.355</v>
+      </c>
+      <c r="H60">
+        <v>2746.03</v>
+      </c>
+      <c r="I60">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>430.31</v>
+      </c>
+      <c r="O60">
+        <v>504.72500000000002</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>79.959999999999994</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>2700</v>
+      </c>
+      <c r="T60">
+        <v>2241.3049999999998</v>
+      </c>
+      <c r="U60">
+        <v>840.35400000000004</v>
+      </c>
+      <c r="V60">
+        <v>66.412000000000006</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>12.62</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>62.335000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>66.033000000000001</v>
+      </c>
+      <c r="D61">
+        <v>237.84</v>
+      </c>
+      <c r="E61">
+        <v>91.47</v>
+      </c>
+      <c r="F61">
+        <v>211.077</v>
+      </c>
+      <c r="G61">
+        <v>1045.2639999999999</v>
+      </c>
+      <c r="H61">
+        <v>2701.5659999999998</v>
+      </c>
+      <c r="I61">
+        <v>3.22</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>411.95699999999999</v>
+      </c>
+      <c r="O61">
+        <v>489.97</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>-64.114999999999995</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>2800</v>
+      </c>
+      <c r="T61">
+        <v>2211.596</v>
+      </c>
+      <c r="U61">
+        <v>776.23900000000003</v>
+      </c>
+      <c r="V61">
+        <v>77.795000000000002</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-106.535</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>66.033000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>68.021000000000001</v>
+      </c>
+      <c r="D62">
+        <v>251.64699999999999</v>
+      </c>
+      <c r="E62">
+        <v>91.578999999999994</v>
+      </c>
+      <c r="F62">
+        <v>224.49199999999999</v>
+      </c>
+      <c r="G62">
+        <v>1076.4259999999999</v>
+      </c>
+      <c r="H62">
+        <v>2729.904</v>
+      </c>
+      <c r="I62">
+        <v>4.8650000000000002</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>484.14600000000002</v>
+      </c>
+      <c r="O62">
+        <v>535.47699999999998</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>7.9290000000000003</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>2800</v>
+      </c>
+      <c r="T62">
+        <v>2194.4270000000001</v>
+      </c>
+      <c r="U62">
+        <v>784.16800000000001</v>
+      </c>
+      <c r="V62">
+        <v>109.196</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-86.313000000000002</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>68.021000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>56.468000000000004</v>
+      </c>
+      <c r="D63">
+        <v>225.90600000000001</v>
+      </c>
+      <c r="E63">
+        <v>82.498000000000005</v>
+      </c>
+      <c r="F63">
+        <v>200.13200000000001</v>
+      </c>
+      <c r="G63">
+        <v>1118.6790000000001</v>
+      </c>
+      <c r="H63">
+        <v>2758.828</v>
+      </c>
+      <c r="I63">
+        <v>4.3019999999999996</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>474.82400000000001</v>
+      </c>
+      <c r="O63">
+        <v>524.92499999999995</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>79.266999999999996</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>2800</v>
+      </c>
+      <c r="T63">
+        <v>2233.9029999999998</v>
+      </c>
+      <c r="U63">
+        <v>863.43499999999995</v>
+      </c>
+      <c r="V63">
+        <v>110.723</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-38.348999999999997</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>56.468000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>69.628</v>
+      </c>
+      <c r="D64">
+        <v>246.06899999999999</v>
+      </c>
+      <c r="E64">
+        <v>85.506</v>
+      </c>
+      <c r="F64">
+        <v>218.578</v>
+      </c>
+      <c r="G64">
+        <v>1109.742</v>
+      </c>
+      <c r="H64">
+        <v>2747.6610000000001</v>
+      </c>
+      <c r="I64">
+        <v>4.218</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>467.71</v>
+      </c>
+      <c r="O64">
+        <v>511.80099999999999</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>-20.079999999999998</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>2800</v>
+      </c>
+      <c r="T64">
+        <v>2235.86</v>
+      </c>
+      <c r="U64">
+        <v>843.35500000000002</v>
+      </c>
+      <c r="V64">
+        <v>71.649000000000001</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-79.045000000000002</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>69.628</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>69.557000000000002</v>
+      </c>
+      <c r="D65">
+        <v>245.86199999999999</v>
+      </c>
+      <c r="E65">
+        <v>85.272999999999996</v>
+      </c>
+      <c r="F65">
+        <v>219.78899999999999</v>
+      </c>
+      <c r="G65">
+        <v>1100.1510000000001</v>
+      </c>
+      <c r="H65">
+        <v>2730.357</v>
+      </c>
+      <c r="I65">
+        <v>3.996</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>454.43700000000001</v>
+      </c>
+      <c r="O65">
+        <v>500.59199999999998</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>-5.4390000000000001</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>2800</v>
+      </c>
+      <c r="T65">
+        <v>2229.7649999999999</v>
+      </c>
+      <c r="U65">
+        <v>837.91600000000005</v>
+      </c>
+      <c r="V65">
+        <v>84.399000000000001</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-88.64</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>69.557000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>69.983000000000004</v>
+      </c>
+      <c r="D66">
+        <v>270.62799999999999</v>
+      </c>
+      <c r="E66">
+        <v>107.19199999999999</v>
+      </c>
+      <c r="F66">
+        <v>241.19800000000001</v>
+      </c>
+      <c r="G66">
+        <v>1169.4010000000001</v>
+      </c>
+      <c r="H66">
+        <v>2800.5259999999998</v>
+      </c>
+      <c r="I66">
+        <v>7.3949999999999996</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>539.1</v>
+      </c>
+      <c r="O66">
+        <v>592.12099999999998</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>-15.436999999999999</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>2800</v>
+      </c>
+      <c r="T66">
+        <v>2208.4050000000002</v>
+      </c>
+      <c r="U66">
+        <v>822.47900000000004</v>
+      </c>
+      <c r="V66">
+        <v>99.209000000000003</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-82.596000000000004</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>69.983000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>63.305999999999997</v>
+      </c>
+      <c r="D67">
+        <v>253.405</v>
+      </c>
+      <c r="E67">
+        <v>92.331999999999994</v>
+      </c>
+      <c r="F67">
+        <v>226.81</v>
+      </c>
+      <c r="G67">
+        <v>1182.069</v>
+      </c>
+      <c r="H67">
+        <v>2794.6930000000002</v>
+      </c>
+      <c r="I67">
+        <v>4.8390000000000004</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>528.726</v>
+      </c>
+      <c r="O67">
+        <v>583.24800000000005</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>43.709000000000003</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>2800</v>
+      </c>
+      <c r="T67">
+        <v>2211.4450000000002</v>
+      </c>
+      <c r="U67">
+        <v>866.18799999999999</v>
+      </c>
+      <c r="V67">
+        <v>125.893</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-78.334000000000003</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>63.305999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>69.73</v>
+      </c>
+      <c r="D68">
+        <v>263.92399999999998</v>
+      </c>
+      <c r="E68">
+        <v>83.222999999999999</v>
+      </c>
+      <c r="F68">
+        <v>236.53800000000001</v>
+      </c>
+      <c r="G68">
+        <v>1145.68</v>
+      </c>
+      <c r="H68">
+        <v>2760.9650000000001</v>
+      </c>
+      <c r="I68">
+        <v>5.2450000000000001</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>514.78700000000003</v>
+      </c>
+      <c r="O68">
+        <v>571.54999999999995</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>-8.1920000000000002</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>2800</v>
+      </c>
+      <c r="T68">
+        <v>2189.415</v>
+      </c>
+      <c r="U68">
+        <v>857.99599999999998</v>
+      </c>
+      <c r="V68">
+        <v>112.182</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-112.36799999999999</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>69.73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>73.63</v>
+      </c>
+      <c r="D69">
+        <v>275.58499999999998</v>
+      </c>
+      <c r="E69">
+        <v>91.355999999999995</v>
+      </c>
+      <c r="F69">
+        <v>248.60599999999999</v>
+      </c>
+      <c r="G69">
+        <v>1201.674</v>
+      </c>
+      <c r="H69">
+        <v>2846.0129999999999</v>
+      </c>
+      <c r="I69">
+        <v>4.2569999999999997</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>496.35199999999998</v>
+      </c>
+      <c r="O69">
+        <v>558.75900000000001</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>61.575000000000003</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>2900</v>
+      </c>
+      <c r="T69">
+        <v>2287.2539999999999</v>
+      </c>
+      <c r="U69">
+        <v>919.57100000000003</v>
+      </c>
+      <c r="V69">
+        <v>88.885000000000005</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>5.3280000000000003</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>73.63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>52.585000000000001</v>
+      </c>
+      <c r="D70">
+        <v>302.33600000000001</v>
+      </c>
+      <c r="E70">
+        <v>124.65900000000001</v>
+      </c>
+      <c r="F70">
+        <v>271.42599999999999</v>
+      </c>
+      <c r="G70">
+        <v>1270.2660000000001</v>
+      </c>
+      <c r="H70">
+        <v>2941.623</v>
+      </c>
+      <c r="I70">
+        <v>6.0419999999999998</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>608.553</v>
+      </c>
+      <c r="O70">
+        <v>695.79200000000003</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>-38.07</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>2900</v>
+      </c>
+      <c r="T70">
+        <v>2245.8310000000001</v>
+      </c>
+      <c r="U70">
+        <v>881.50099999999998</v>
+      </c>
+      <c r="V70">
+        <v>103.47799999999999</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-109.277</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>52.585000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>84.28</v>
+      </c>
+      <c r="D71">
+        <v>282.87299999999999</v>
+      </c>
+      <c r="E71">
+        <v>256.56</v>
+      </c>
+      <c r="F71">
+        <v>252.62100000000001</v>
+      </c>
+      <c r="G71">
+        <v>1327.329</v>
+      </c>
+      <c r="H71">
+        <v>2959.1660000000002</v>
+      </c>
+      <c r="I71">
+        <v>7.2590000000000003</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>442.09199999999998</v>
+      </c>
+      <c r="O71">
+        <v>551.80600000000004</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>3.992</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>3000</v>
+      </c>
+      <c r="T71">
+        <v>2407.36</v>
+      </c>
+      <c r="U71">
+        <v>885.49300000000005</v>
+      </c>
+      <c r="V71">
+        <v>132.42099999999999</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-129.405</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>84.28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>92.596000000000004</v>
+      </c>
+      <c r="D72">
+        <v>305.91300000000001</v>
+      </c>
+      <c r="E72">
+        <v>258.27999999999997</v>
+      </c>
+      <c r="F72">
+        <v>274.55</v>
+      </c>
+      <c r="G72">
+        <v>1142.9849999999999</v>
+      </c>
+      <c r="H72">
+        <v>3058.25</v>
+      </c>
+      <c r="I72">
+        <v>7.5979999999999999</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>435.00099999999998</v>
+      </c>
+      <c r="O72">
+        <v>550.77099999999996</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>-189.59899999999999</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>3200</v>
+      </c>
+      <c r="T72">
+        <v>2507.4789999999998</v>
+      </c>
+      <c r="U72">
+        <v>695.89400000000001</v>
+      </c>
+      <c r="V72">
+        <v>111.121</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>8.1959999999999997</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>92.596000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>89.335999999999999</v>
+      </c>
+      <c r="D73">
+        <v>289.41800000000001</v>
+      </c>
+      <c r="E73">
+        <v>235.547</v>
+      </c>
+      <c r="F73">
+        <v>258.64</v>
+      </c>
+      <c r="G73">
+        <v>1127.567</v>
+      </c>
+      <c r="H73">
+        <v>3056.1109999999999</v>
+      </c>
+      <c r="I73">
+        <v>6.7670000000000003</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>415.43900000000002</v>
+      </c>
+      <c r="O73">
+        <v>507.565</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>33.286000000000001</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>3300</v>
+      </c>
+      <c r="T73">
+        <v>2548.5459999999998</v>
+      </c>
+      <c r="U73">
+        <v>729.18</v>
+      </c>
+      <c r="V73">
+        <v>109.961</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-66.073999999999998</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>89.335999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>153.16300000000001</v>
+      </c>
+      <c r="D74">
+        <v>415.43200000000002</v>
+      </c>
+      <c r="E74">
+        <v>317.7</v>
+      </c>
+      <c r="F74">
+        <v>378.97399999999999</v>
+      </c>
+      <c r="G74">
+        <v>1311.1769999999999</v>
+      </c>
+      <c r="H74">
+        <v>3265.9639999999999</v>
+      </c>
+      <c r="I74">
+        <v>7.9530000000000003</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>524.76700000000005</v>
+      </c>
+      <c r="O74">
+        <v>616.41700000000003</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>47.959000000000003</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>3400</v>
+      </c>
+      <c r="T74">
+        <v>2649.547</v>
+      </c>
+      <c r="U74">
+        <v>777.13900000000001</v>
+      </c>
+      <c r="V74">
+        <v>131.48500000000001</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-75.391999999999996</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>153.16300000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>86.23</v>
+      </c>
+      <c r="D75">
+        <v>317.13</v>
+      </c>
+      <c r="E75">
+        <v>268.52600000000001</v>
+      </c>
+      <c r="F75">
+        <v>286.86200000000002</v>
+      </c>
+      <c r="G75">
+        <v>1062.8109999999999</v>
+      </c>
+      <c r="H75">
+        <v>3372.2629999999999</v>
+      </c>
+      <c r="I75">
+        <v>11.502000000000001</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>503.41</v>
+      </c>
+      <c r="O75">
+        <v>687.88199999999995</v>
+      </c>
+      <c r="P75">
+        <v>102.52500000000001</v>
+      </c>
+      <c r="Q75">
+        <v>-169.74799999999999</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>3700</v>
+      </c>
+      <c r="T75">
+        <v>2684.3809999999999</v>
+      </c>
+      <c r="U75">
+        <v>607.39099999999996</v>
+      </c>
+      <c r="V75">
+        <v>151.578</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-69.090999999999994</v>
+      </c>
+      <c r="Y75">
+        <v>87.259</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>86.23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>109.75</v>
+      </c>
+      <c r="D76">
+        <v>368.63499999999999</v>
+      </c>
+      <c r="E76">
+        <v>297.798</v>
+      </c>
+      <c r="F76">
+        <v>332.89299999999997</v>
+      </c>
+      <c r="G76">
+        <v>1133.345</v>
+      </c>
+      <c r="H76">
+        <v>3512.8420000000001</v>
+      </c>
+      <c r="I76">
+        <v>9.8650000000000002</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>505.666</v>
+      </c>
+      <c r="O76">
+        <v>695.55600000000004</v>
+      </c>
+      <c r="P76">
+        <v>107.52</v>
+      </c>
+      <c r="Q76">
+        <v>24.064</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>3800</v>
+      </c>
+      <c r="T76">
+        <v>2817.2860000000001</v>
+      </c>
+      <c r="U76">
+        <v>631.45500000000004</v>
+      </c>
+      <c r="V76">
+        <v>88.539000000000001</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-6.4669999999999996</v>
+      </c>
+      <c r="Y76">
+        <v>90.42</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>109.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>89.462999999999994</v>
+      </c>
+      <c r="D77">
+        <v>343.899</v>
+      </c>
+      <c r="E77">
+        <v>295.58999999999997</v>
+      </c>
+      <c r="F77">
+        <v>307.29599999999999</v>
+      </c>
+      <c r="G77">
+        <v>1206.2260000000001</v>
+      </c>
+      <c r="H77">
+        <v>3582.0120000000002</v>
+      </c>
+      <c r="I77">
+        <v>8.1720000000000006</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>473.83</v>
+      </c>
+      <c r="O77">
+        <v>658.68799999999999</v>
+      </c>
+      <c r="P77">
+        <v>107.83199999999999</v>
+      </c>
+      <c r="Q77">
+        <v>101.229</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>3900</v>
+      </c>
+      <c r="T77">
+        <v>2923.3240000000001</v>
+      </c>
+      <c r="U77">
+        <v>732.68399999999997</v>
+      </c>
+      <c r="V77">
+        <v>120.36799999999999</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>5.5220000000000002</v>
+      </c>
+      <c r="Y77">
+        <v>91.173000000000002</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>89.462999999999994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>165.852</v>
+      </c>
+      <c r="D78">
+        <v>486.22800000000001</v>
+      </c>
+      <c r="E78">
+        <v>433.47899999999998</v>
+      </c>
+      <c r="F78">
+        <v>444.27800000000002</v>
+      </c>
+      <c r="G78">
+        <v>1555.48</v>
+      </c>
+      <c r="H78">
+        <v>4838.8869999999997</v>
+      </c>
+      <c r="I78">
+        <v>14.298</v>
+      </c>
+      <c r="J78">
+        <v>423.53100000000001</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>695.14</v>
+      </c>
+      <c r="O78">
+        <v>1385.508</v>
+      </c>
+      <c r="P78">
+        <v>590.29899999999998</v>
+      </c>
+      <c r="Q78">
+        <v>139.41</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>4100</v>
+      </c>
+      <c r="T78">
+        <v>3453.3789999999999</v>
+      </c>
+      <c r="U78">
+        <v>872.09400000000005</v>
+      </c>
+      <c r="V78">
+        <v>139.45099999999999</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>499.44499999999999</v>
+      </c>
+      <c r="Y78">
+        <v>91.768000000000001</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>165.852</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>46.064</v>
+      </c>
+      <c r="D79">
+        <v>304.98500000000001</v>
+      </c>
+      <c r="E79">
+        <v>337.10500000000002</v>
+      </c>
+      <c r="F79">
+        <v>264.42099999999999</v>
+      </c>
+      <c r="G79">
+        <v>1290.7</v>
+      </c>
+      <c r="H79">
+        <v>4526.085</v>
+      </c>
+      <c r="I79">
+        <v>12.571</v>
+      </c>
+      <c r="J79">
+        <v>423.60700000000003</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-75</v>
+      </c>
+      <c r="N79">
+        <v>537.14200000000005</v>
+      </c>
+      <c r="O79">
+        <v>1233.7349999999999</v>
+      </c>
+      <c r="P79">
+        <v>549.33600000000001</v>
+      </c>
+      <c r="Q79">
+        <v>-154.346</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>4200</v>
+      </c>
+      <c r="T79">
+        <v>3292.35</v>
+      </c>
+      <c r="U79">
+        <v>717.74800000000005</v>
+      </c>
+      <c r="V79">
+        <v>147.41200000000001</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-288.738</v>
+      </c>
+      <c r="Y79">
+        <v>107.035</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>46.064</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>96.563999999999993</v>
+      </c>
+      <c r="D80">
+        <v>385.661</v>
+      </c>
+      <c r="E80">
+        <v>343.24700000000001</v>
+      </c>
+      <c r="F80">
+        <v>341.565</v>
+      </c>
+      <c r="G80">
+        <v>1294.2639999999999</v>
+      </c>
+      <c r="H80">
+        <v>4671.866</v>
+      </c>
+      <c r="I80">
+        <v>10.505000000000001</v>
+      </c>
+      <c r="J80">
+        <v>423.68299999999999</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>543.80600000000004</v>
+      </c>
+      <c r="O80">
+        <v>1233.818</v>
+      </c>
+      <c r="P80">
+        <v>546.40200000000004</v>
+      </c>
+      <c r="Q80">
+        <v>26.797999999999998</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>4400</v>
+      </c>
+      <c r="T80">
+        <v>3438.0479999999998</v>
+      </c>
+      <c r="U80">
+        <v>744.54600000000005</v>
+      </c>
+      <c r="V80">
+        <v>131.59200000000001</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>3.1869999999999998</v>
+      </c>
+      <c r="Y80">
+        <v>103.58499999999999</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>96.563999999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>75.626999999999995</v>
+      </c>
+      <c r="D81">
+        <v>366.96499999999997</v>
+      </c>
+      <c r="E81">
+        <v>371.35199999999998</v>
+      </c>
+      <c r="F81">
+        <v>323.49099999999999</v>
+      </c>
+      <c r="G81">
+        <v>1458.721</v>
+      </c>
+      <c r="H81">
+        <v>4846.2950000000001</v>
+      </c>
+      <c r="I81">
+        <v>10.577999999999999</v>
+      </c>
+      <c r="J81">
+        <v>423.75900000000001</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>561.84699999999998</v>
+      </c>
+      <c r="O81">
+        <v>1256.682</v>
+      </c>
+      <c r="P81">
+        <v>545.87300000000005</v>
+      </c>
+      <c r="Q81">
+        <v>100.19499999999999</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>4500</v>
+      </c>
+      <c r="T81">
+        <v>3589.6129999999998</v>
+      </c>
+      <c r="U81">
+        <v>844.74099999999999</v>
+      </c>
+      <c r="V81">
+        <v>94.539000000000001</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>9.7050000000000001</v>
+      </c>
+      <c r="Y81">
+        <v>101.941</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>75.626999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>215.63200000000001</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>623.68600000000004</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>537.56399999999996</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>567.19799999999998</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1719.2370000000001</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>5940.59</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>18.690999999999999</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>798.11800000000005</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>728.82500000000005</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>1842.7180000000001</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>942.649</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>67.930999999999997</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>4800</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>4097.8720000000003</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>912.67200000000003</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>173.767</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>372.44299999999998</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>120.94</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>215.63200000000001</v>
       </c>
     </row>
